--- a/BEMFSimulation/ExcelResults/Fluxlinkage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/Fluxlinkage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-0.3395555777895969</v>
+        <v>-0.02605863221882625</v>
       </c>
       <c r="C2">
-        <v>0.1790460752347025</v>
+        <v>0.01377943060570355</v>
       </c>
       <c r="D2">
-        <v>0.1561253298706972</v>
+        <v>0.01202190969373572</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>-0.3393108237331366</v>
+        <v>-0.02603295433494097</v>
       </c>
       <c r="C3">
-        <v>0.2009664431986226</v>
+        <v>0.0154460830560957</v>
       </c>
       <c r="D3">
-        <v>0.1330411131303618</v>
+        <v>0.01024904843418194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>-0.3379197453153525</v>
+        <v>-0.02592814421179669</v>
       </c>
       <c r="C4">
-        <v>0.2218819779434132</v>
+        <v>0.01705625222686555</v>
       </c>
       <c r="D4">
-        <v>0.1102293369242773</v>
+        <v>0.008475307730270915</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>-0.3337645125292327</v>
+        <v>-0.02561804914544486</v>
       </c>
       <c r="C5">
-        <v>0.2410881534956867</v>
+        <v>0.01856393177722858</v>
       </c>
       <c r="D5">
-        <v>0.08834671880798309</v>
+        <v>0.006773599173171972</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>-0.3262885848690177</v>
+        <v>-0.02505291377941041</v>
       </c>
       <c r="C6">
-        <v>0.2577393109590259</v>
+        <v>0.01980396457975165</v>
       </c>
       <c r="D6">
-        <v>0.06720051856104858</v>
+        <v>0.005171844745031701</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>-0.3168633438940422</v>
+        <v>-0.02431464299414226</v>
       </c>
       <c r="C7">
-        <v>0.2715868541441729</v>
+        <v>0.02086209230911188</v>
       </c>
       <c r="D7">
-        <v>0.04546482601223335</v>
+        <v>0.003478120200406677</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>-0.3066650588888804</v>
+        <v>-0.02353045180175459</v>
       </c>
       <c r="C8">
-        <v>0.2837571625925348</v>
+        <v>0.02180762453937531</v>
       </c>
       <c r="D8">
-        <v>0.02318106887974077</v>
+        <v>0.001751320737947629</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.2956091579704436</v>
+        <v>-0.02270038019678548</v>
       </c>
       <c r="C9">
-        <v>0.2953505552307266</v>
+        <v>0.02269804195445591</v>
       </c>
       <c r="D9">
-        <v>0.0001757036562477846</v>
+        <v>7.569216554587002e-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>-0.2840064404006338</v>
+        <v>-0.02181537306408039</v>
       </c>
       <c r="C10">
-        <v>0.3064425255828137</v>
+        <v>0.02353672574851009</v>
       </c>
       <c r="D10">
-        <v>-0.02291070093181531</v>
+        <v>-0.001739588791454499</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>-0.2718497359743344</v>
+        <v>-0.020873680329162</v>
       </c>
       <c r="C11">
-        <v>0.3166534639714761</v>
+        <v>0.0243146276104443</v>
       </c>
       <c r="D11">
-        <v>-0.04527069143429521</v>
+        <v>-0.003453699680484418</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>-0.2580310547153579</v>
+        <v>-0.01980184102127053</v>
       </c>
       <c r="C12">
-        <v>0.3261078214517027</v>
+        <v>0.02505764242646714</v>
       </c>
       <c r="D12">
-        <v>-0.0670906579338954</v>
+        <v>-0.005173544603390562</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>-0.2413903863930691</v>
+        <v>-0.01854187925177104</v>
       </c>
       <c r="C13">
-        <v>0.3336123844974599</v>
+        <v>0.0256126956655484</v>
       </c>
       <c r="D13">
-        <v>-0.08830400973762778</v>
+        <v>-0.006794649549796535</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>-0.2222222698401755</v>
+        <v>-0.01706645843740667</v>
       </c>
       <c r="C14">
-        <v>0.337823951480844</v>
+        <v>0.02591990900447109</v>
       </c>
       <c r="D14">
-        <v>-0.110210548285512</v>
+        <v>-0.008473297010389938</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>-0.2013173736367304</v>
+        <v>-0.01543780188323767</v>
       </c>
       <c r="C15">
-        <v>0.3392522885567205</v>
+        <v>0.02602554379628106</v>
       </c>
       <c r="D15">
-        <v>-0.1329839747789846</v>
+        <v>-0.01024507951578901</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>-0.1794364503115232</v>
+        <v>-0.01378019046017143</v>
       </c>
       <c r="C16">
-        <v>0.3395191903028187</v>
+        <v>0.02605354945481923</v>
       </c>
       <c r="D16">
-        <v>-0.1559753821184143</v>
+        <v>-0.01200511030253196</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>-0.1564161487591542</v>
+        <v>-0.01203173338929854</v>
       </c>
       <c r="C17">
-        <v>0.339518475190908</v>
+        <v>0.02605403457745157</v>
       </c>
       <c r="D17">
-        <v>-0.1789603449683246</v>
+        <v>-0.01375953277667773</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>-0.1333896666994193</v>
+        <v>-0.01026838383737816</v>
       </c>
       <c r="C18">
-        <v>0.3392705362160695</v>
+        <v>0.02602942029973142</v>
       </c>
       <c r="D18">
-        <v>-0.2008905437955759</v>
+        <v>-0.01542649575151844</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>-0.1106296565503275</v>
+        <v>-0.008491951378706619</v>
       </c>
       <c r="C19">
-        <v>0.3378950898136981</v>
+        <v>0.02592725757354386</v>
       </c>
       <c r="D19">
-        <v>-0.2218027946945245</v>
+        <v>-0.01704038180070069</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>-0.08868929584605181</v>
+        <v>-0.006780533667877589</v>
       </c>
       <c r="C20">
-        <v>0.333758184716287</v>
+        <v>0.02561876759976216</v>
       </c>
       <c r="D20">
-        <v>-0.2410443375215574</v>
+        <v>-0.01854737783153768</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>-0.06746547130038261</v>
+        <v>-0.005166086363136871</v>
       </c>
       <c r="C21">
-        <v>0.3262783573193169</v>
+        <v>0.02505919370915419</v>
       </c>
       <c r="D21">
-        <v>-0.2577079038235925</v>
+        <v>-0.01978893882383124</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>-0.04567006901471166</v>
+        <v>-0.003462401399875708</v>
       </c>
       <c r="C22">
-        <v>0.3168372830810477</v>
+        <v>0.02432218231371503</v>
       </c>
       <c r="D22">
-        <v>-0.2715569576715875</v>
+        <v>-0.02085193076701229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>-0.02334236965371052</v>
+        <v>-0.001736322332271254</v>
       </c>
       <c r="C23">
-        <v>0.3066413362356749</v>
+        <v>0.02353691925457832</v>
       </c>
       <c r="D23">
-        <v>-0.2837480257870958</v>
+        <v>-0.02180171937881128</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>-0.0003275736912284194</v>
+        <v>7.479973520499363e-06</v>
       </c>
       <c r="C24">
-        <v>0.2955861063365116</v>
+        <v>0.022701900401925</v>
       </c>
       <c r="D24">
-        <v>-0.2953570018206444</v>
+        <v>-0.02269171378246469</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>0.0227339481619812</v>
+        <v>0.001762017561401667</v>
       </c>
       <c r="C25">
-        <v>0.2839811904953409</v>
+        <v>0.02181190249108525</v>
       </c>
       <c r="D25">
-        <v>-0.3064417636597847</v>
+        <v>-0.02352864115861354</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>0.04512283155525734</v>
+        <v>0.0034825011919918</v>
       </c>
       <c r="C26">
-        <v>0.2718072320490948</v>
+        <v>0.02087031527007697</v>
       </c>
       <c r="D26">
-        <v>-0.3166425110006661</v>
+        <v>-0.0243070896373668</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>0.06700129320774634</v>
+        <v>0.005200555625469817</v>
       </c>
       <c r="C27">
-        <v>0.257975449880622</v>
+        <v>0.01980389141383682</v>
       </c>
       <c r="D27">
-        <v>-0.3261023331314326</v>
+        <v>-0.02505247643282983</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>0.08829180546589542</v>
+        <v>0.006813561119513429</v>
       </c>
       <c r="C28">
-        <v>0.2413282449666836</v>
+        <v>0.01854800722209107</v>
       </c>
       <c r="D28">
-        <v>-0.3336163638997464</v>
+        <v>-0.02561458475010004</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>0.1103014319239782</v>
+        <v>0.008493035228705854</v>
       </c>
       <c r="C29">
-        <v>0.2221190427977076</v>
+        <v>0.01706856792363221</v>
       </c>
       <c r="D29">
-        <v>-0.3378214852004836</v>
+        <v>-0.02592378557865509</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>0.1331208242739674</v>
+        <v>0.01027489006424248</v>
       </c>
       <c r="C30">
-        <v>0.2011797974906739</v>
+        <v>0.0154362470609208</v>
       </c>
       <c r="D30">
-        <v>-0.3392345096217589</v>
+        <v>-0.02602684436632979</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>0.1561002433791177</v>
+        <v>0.01204432219275073</v>
       </c>
       <c r="C31">
-        <v>0.1792871537186034</v>
+        <v>0.01377629955738335</v>
       </c>
       <c r="D31">
-        <v>-0.339487268221485</v>
+        <v>-0.0260523550428813</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>0.1790645763460459</v>
+        <v>0.01379297818710473</v>
       </c>
       <c r="C32">
-        <v>0.1562823031659553</v>
+        <v>0.01202943544197829</v>
       </c>
       <c r="D32">
-        <v>-0.3394789891717437</v>
+        <v>-0.02605184307487777</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>0.2009626040220297</v>
+        <v>0.01544239690374599</v>
       </c>
       <c r="C33">
-        <v>0.1332578573108797</v>
+        <v>0.01026979889491509</v>
       </c>
       <c r="D33">
-        <v>-0.3392282914593539</v>
+        <v>-0.02602844118888004</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>0.2218398947781874</v>
+        <v>0.01704823118202438</v>
       </c>
       <c r="C34">
-        <v>0.1104877064056247</v>
+        <v>0.008494929510300567</v>
       </c>
       <c r="D34">
-        <v>-0.3378498409220537</v>
+        <v>-0.0259282553964518</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>0.2410522004182819</v>
+        <v>0.01856055811493273</v>
       </c>
       <c r="C35">
-        <v>0.08855199528633939</v>
+        <v>0.006786309932189394</v>
       </c>
       <c r="D35">
-        <v>-0.3337212723289912</v>
+        <v>-0.02561992595762756</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>0.2577082926591028</v>
+        <v>0.0198042738242302</v>
       </c>
       <c r="C36">
-        <v>0.06734503367100933</v>
+        <v>0.005180537444670589</v>
       </c>
       <c r="D36">
-        <v>-0.3262517381152705</v>
+        <v>-0.02505960367950309</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>0.271566525527413</v>
+        <v>0.02086145333249006</v>
       </c>
       <c r="C37">
-        <v>0.04556789288226953</v>
+        <v>0.003483613124427594</v>
       </c>
       <c r="D37">
-        <v>-0.3168199917898619</v>
+        <v>-0.02432343798160419</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>0.2837565715157276</v>
+        <v>0.02180631025420775</v>
       </c>
       <c r="C38">
-        <v>0.02322570534070998</v>
+        <v>0.001756037496869382</v>
       </c>
       <c r="D38">
-        <v>-0.3066171154713343</v>
+        <v>-0.0235373747308488</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>0.2953586764230631</v>
+        <v>0.02269671203537045</v>
       </c>
       <c r="C39">
-        <v>0.0001943550237789166</v>
+        <v>1.27088564024708e-05</v>
       </c>
       <c r="D39">
-        <v>-0.2955554008449005</v>
+        <v>-0.02270394115205608</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>0.3064515185858411</v>
+        <v>0.02353752519155922</v>
       </c>
       <c r="C40">
-        <v>-0.0229036742338467</v>
+        <v>-0.001738400405471938</v>
       </c>
       <c r="D40">
-        <v>-0.2839281296770888</v>
+        <v>-0.021815134491177</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>0.3166502420973372</v>
+        <v>0.02431713414851306</v>
       </c>
       <c r="C41">
-        <v>-0.045252385565642</v>
+        <v>-0.003455906529934917</v>
       </c>
       <c r="D41">
-        <v>-0.2717626142918797</v>
+        <v>-0.02087373149893279</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>0.3261078555291539</v>
+        <v>0.02506325248695952</v>
       </c>
       <c r="C42">
-        <v>-0.06708342412612073</v>
+        <v>-0.005180953773320692</v>
       </c>
       <c r="D42">
-        <v>-0.2579397067310422</v>
+        <v>-0.01980238637490461</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>0.3336272855359276</v>
+        <v>0.02562102304760126</v>
       </c>
       <c r="C43">
-        <v>-0.08832394977979498</v>
+        <v>-0.006799672223575743</v>
       </c>
       <c r="D43">
-        <v>-0.2412948683751617</v>
+        <v>-0.01854176967566027</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>0.3378516104763799</v>
+        <v>0.02592824801302411</v>
       </c>
       <c r="C44">
-        <v>-0.1102513442893437</v>
+        <v>-0.00848172742669339</v>
       </c>
       <c r="D44">
-        <v>-0.2220843001002189</v>
+        <v>-0.01706005327848648</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>0.3392847228861328</v>
+        <v>0.02603106351880405</v>
       </c>
       <c r="C45">
-        <v>-0.133042611625998</v>
+        <v>-0.01026283694086675</v>
       </c>
       <c r="D45">
-        <v>-0.2011215110804894</v>
+        <v>-0.01542882802747969</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>0.3395522982441629</v>
+        <v>0.02605693322216815</v>
       </c>
       <c r="C46">
-        <v>-0.1560583915153624</v>
+        <v>-0.01202356437530151</v>
       </c>
       <c r="D46">
-        <v>-0.1791747418279195</v>
+        <v>-0.01377814360209025</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>0.3395555325700632</v>
+        <v>0.02605862710027867</v>
       </c>
       <c r="C47">
-        <v>-0.1790787124385838</v>
+        <v>-0.01378188677613554</v>
       </c>
       <c r="D47">
-        <v>-0.1560918286456076</v>
+        <v>-0.0120193575819289</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>0.3393099496986062</v>
+        <v>0.02603287978186612</v>
       </c>
       <c r="C48">
-        <v>-0.2009969773827176</v>
+        <v>-0.01544842867962117</v>
       </c>
       <c r="D48">
-        <v>-0.1330081755006127</v>
+        <v>-0.01024649546726147</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>0.3379162254740844</v>
+        <v>0.02592787700680213</v>
       </c>
       <c r="C49">
-        <v>-0.2219113842527857</v>
+        <v>-0.0170585913926563</v>
       </c>
       <c r="D49">
-        <v>-0.1101968118820049</v>
+        <v>-0.008472751034373619</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>0.3337558108505397</v>
+        <v>0.0256173961322247</v>
       </c>
       <c r="C50">
-        <v>-0.2411140731140408</v>
+        <v>-0.01856588024966531</v>
       </c>
       <c r="D50">
-        <v>-0.08831603133698628</v>
+        <v>-0.006771265040786982</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>0.3262761165035202</v>
+        <v>0.02505194469626127</v>
       </c>
       <c r="C51">
-        <v>-0.2577611349668532</v>
+        <v>-0.01980560900902551</v>
       </c>
       <c r="D51">
-        <v>-0.06716983899549819</v>
+        <v>-0.005169481678490693</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>0.316848997014332</v>
+        <v>0.02431350931009602</v>
       </c>
       <c r="C52">
-        <v>-0.2716053116337145</v>
+        <v>-0.0208635184250742</v>
       </c>
       <c r="D52">
-        <v>-0.0454329612645206</v>
+        <v>-0.003475615069011792</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>0.3066498304948511</v>
+        <v>0.02352930766661838</v>
       </c>
       <c r="C53">
-        <v>-0.283774068114095</v>
+        <v>-0.02180893120732062</v>
       </c>
       <c r="D53">
-        <v>-0.02314853077777776</v>
+        <v>-0.00174884310869021</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>0.2955926507976333</v>
+        <v>0.02269912895060871</v>
       </c>
       <c r="C54">
-        <v>-0.2953670754630725</v>
+        <v>-0.02269931350602986</v>
       </c>
       <c r="D54">
-        <v>-0.000142121346991507</v>
+        <v>-5.016683869142353e-06</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>0.2839894829821603</v>
+        <v>0.02181406805693573</v>
       </c>
       <c r="C55">
-        <v>-0.3064578635168392</v>
+        <v>-0.02353788831855394</v>
       </c>
       <c r="D55">
-        <v>0.02294346122216453</v>
+        <v>0.001742084803048096</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>0.2718312572228604</v>
+        <v>0.0208722483267487</v>
       </c>
       <c r="C56">
-        <v>-0.3166678550430118</v>
+        <v>-0.02431571461804888</v>
       </c>
       <c r="D56">
-        <v>0.04530270047849642</v>
+        <v>0.003456162854432763</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>0.2580093166302044</v>
+        <v>0.01980016738947426</v>
       </c>
       <c r="C57">
-        <v>-0.3261203191975934</v>
+        <v>-0.02505861266155375</v>
       </c>
       <c r="D57">
-        <v>0.06712140663218545</v>
+        <v>0.005175960284815764</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>0.2413644727742831</v>
+        <v>0.0185399329674773</v>
       </c>
       <c r="C58">
-        <v>-0.3336211718277543</v>
+        <v>-0.0256133292777375</v>
       </c>
       <c r="D58">
-        <v>0.08833479649864592</v>
+        <v>0.00679696774086465</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>0.2221929951506282</v>
+        <v>0.01706419078317377</v>
       </c>
       <c r="C59">
-        <v>-0.3378275279974264</v>
+        <v>-0.02592017494791679</v>
       </c>
       <c r="D59">
-        <v>0.1102429754075661</v>
+        <v>0.00847580643809499</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>0.2012866523938539</v>
+        <v>0.0154354558375073</v>
       </c>
       <c r="C60">
-        <v>-0.3392532284272882</v>
+        <v>-0.02602562005034189</v>
       </c>
       <c r="D60">
-        <v>0.1330170634895021</v>
+        <v>0.01024763028485236</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>0.1794039765908796</v>
+        <v>0.01377774283856065</v>
       </c>
       <c r="C61">
-        <v>-0.3395192488057361</v>
+        <v>-0.02605355897286153</v>
       </c>
       <c r="D61">
-        <v>0.1560086089317904</v>
+        <v>0.01200764626213924</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>0.1563827856253223</v>
+        <v>0.012029193714173</v>
       </c>
       <c r="C62">
-        <v>-0.3395184514062938</v>
+        <v>-0.02605402678165786</v>
       </c>
       <c r="D62">
-        <v>0.1789928944535824</v>
+        <v>0.0137619913526797</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>0.1333566425793252</v>
+        <v>0.01026584339927983</v>
       </c>
       <c r="C63">
-        <v>-0.3392696711970391</v>
+        <v>-0.02602935077979458</v>
       </c>
       <c r="D63">
-        <v>0.2009212578451583</v>
+        <v>0.01542883704718895</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>0.110597198874738</v>
+        <v>0.008489380775978897</v>
       </c>
       <c r="C64">
-        <v>-0.3378916099806084</v>
+        <v>-0.02592699372452647</v>
       </c>
       <c r="D64">
-        <v>0.2218321845930303</v>
+        <v>0.01704272700294733</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>0.08865843249000956</v>
+        <v>0.006778182397224796</v>
       </c>
       <c r="C65">
-        <v>-0.3337494923261744</v>
+        <v>-0.02561811954737582</v>
       </c>
       <c r="D65">
-        <v>0.2410703652401632</v>
+        <v>0.01854932348566476</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>0.06743466750183068</v>
+        <v>0.005163708072886892</v>
       </c>
       <c r="C66">
-        <v>-0.3262658290257435</v>
+        <v>-0.02505822923291929</v>
       </c>
       <c r="D66">
-        <v>0.2577297615075493</v>
+        <v>0.01979058244291256</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>0.0456381640190697</v>
+        <v>0.003459881679677436</v>
       </c>
       <c r="C67">
-        <v>-0.3168229749178861</v>
+        <v>-0.02432104460241567</v>
       </c>
       <c r="D67">
-        <v>0.2715754009371921</v>
+        <v>0.02085337117962425</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>0.02330971730161238</v>
+        <v>0.001733836214031578</v>
       </c>
       <c r="C68">
-        <v>-0.3066260652998225</v>
+        <v>-0.02353576012561896</v>
       </c>
       <c r="D68">
-        <v>0.2837650151065604</v>
+        <v>0.02180303638307813</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>0.0002939874705827419</v>
+        <v>-1.00391770259012e-05</v>
       </c>
       <c r="C69">
-        <v>-0.2955695943409559</v>
+        <v>-0.02270064197429248</v>
       </c>
       <c r="D69">
-        <v>0.2953735310759639</v>
+        <v>0.02269298282640084</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-0.02276672529912932</v>
+        <v>-0.001764522997135733</v>
       </c>
       <c r="C70">
-        <v>-0.283964194831186</v>
+        <v>-0.02181059288137214</v>
       </c>
       <c r="D70">
-        <v>0.3064571139075023</v>
+        <v>0.02352980131898075</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-0.04515488239105925</v>
+        <v>-0.003484970458220099</v>
       </c>
       <c r="C71">
-        <v>-0.2717887434941287</v>
+        <v>-0.02086888866902114</v>
       </c>
       <c r="D71">
-        <v>0.3166568586956048</v>
+        <v>0.02430817882596423</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-0.06703214795640648</v>
+        <v>-0.005202972052119545</v>
       </c>
       <c r="C72">
-        <v>-0.2579536971736058</v>
+        <v>-0.01980222029630016</v>
       </c>
       <c r="D72">
-        <v>0.3261148389383117</v>
+        <v>0.02505345967102238</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-0.08832271730301325</v>
+        <v>-0.006815864500580251</v>
       </c>
       <c r="C73">
-        <v>-0.241302284485454</v>
+        <v>-0.01854606389087368</v>
       </c>
       <c r="D73">
-        <v>0.3336251402569006</v>
+        <v>0.02561522772741623</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-0.1103340663951721</v>
+        <v>-0.008495555300550949</v>
       </c>
       <c r="C74">
-        <v>-0.2220896479320435</v>
+        <v>-0.01706629555446508</v>
       </c>
       <c r="D74">
-        <v>0.3378250703095189</v>
+        <v>0.02592404897249438</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-0.1331537547767439</v>
+        <v>-0.01027745388927796</v>
       </c>
       <c r="C75">
-        <v>-0.2011491973332022</v>
+        <v>-0.01543389728819669</v>
       </c>
       <c r="D75">
-        <v>0.3392354043014976</v>
+        <v>0.02602691796280115</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-0.1561335588119441</v>
+        <v>-0.01204685611640772</v>
       </c>
       <c r="C76">
-        <v>-0.1792545691610001</v>
+        <v>-0.01377385622077956</v>
       </c>
       <c r="D76">
-        <v>0.3394872991928669</v>
+        <v>0.0260523633776189</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-0.1790971501040437</v>
+        <v>-0.013795424176223</v>
       </c>
       <c r="C77">
-        <v>-0.1562488948723671</v>
+        <v>-0.01202689778413149</v>
       </c>
       <c r="D77">
-        <v>0.3394789242044041</v>
+        <v>0.02605183534168213</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-0.2009931146148476</v>
+        <v>-0.01544471562640553</v>
       </c>
       <c r="C78">
-        <v>-0.1332249755043974</v>
+        <v>-0.01026726004208438</v>
       </c>
       <c r="D78">
-        <v>0.3392274337297912</v>
+        <v>0.02602837444986294</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-0.2218692989385628</v>
+        <v>-0.01705056269326931</v>
       </c>
       <c r="C79">
-        <v>-0.1104551653717718</v>
+        <v>-0.008492373220058261</v>
       </c>
       <c r="D79">
-        <v>0.3378463502843028</v>
+        <v>0.02592800120219434</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-0.2410781803458276</v>
+        <v>-0.01856251710747468</v>
       </c>
       <c r="C80">
-        <v>-0.08852113431267876</v>
+        <v>-0.006783962576527562</v>
       </c>
       <c r="D80">
-        <v>0.3337125771223263</v>
+        <v>0.02561928141226602</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-0.2577301858288917</v>
+        <v>-0.0198059140338749</v>
       </c>
       <c r="C81">
-        <v>-0.06731422783229214</v>
+        <v>-0.005178172950455562</v>
       </c>
       <c r="D81">
-        <v>0.3262392333162927</v>
+        <v>0.0250586399207257</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-0.2715849154244855</v>
+        <v>-0.02086288667369265</v>
       </c>
       <c r="C82">
-        <v>-0.045536055124677</v>
+        <v>-0.003481091092957606</v>
       </c>
       <c r="D82">
-        <v>0.3168057129498282</v>
+        <v>0.02432229771188015</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-0.2837734828825078</v>
+        <v>-0.02180761762948286</v>
       </c>
       <c r="C83">
-        <v>-0.02319312364373187</v>
+        <v>-0.001753556680805822</v>
       </c>
       <c r="D83">
-        <v>0.3066019187942861</v>
+        <v>0.02353622077457519</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-0.2953750984274074</v>
+        <v>-0.02269798587309064</v>
       </c>
       <c r="C84">
-        <v>-0.0001609269528394033</v>
+        <v>-1.015243783544307e-05</v>
       </c>
       <c r="D84">
-        <v>0.2955389966999801</v>
+        <v>0.02270268457296251</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-0.3064667489619941</v>
+        <v>-0.02353868990036679</v>
       </c>
       <c r="C85">
-        <v>0.02293629684118029</v>
+        <v>0.00174089721069534</v>
       </c>
       <c r="D85">
-        <v>0.2839112603219283</v>
+        <v>0.02181382816716542</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-0.3166645693569369</v>
+        <v>-0.02431822462507276</v>
       </c>
       <c r="C86">
-        <v>0.04528433584690038</v>
+        <v>0.003458378017189883</v>
       </c>
       <c r="D86">
-        <v>0.271744191985744</v>
+        <v>0.02087230200789337</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-0.3261203709766671</v>
+        <v>-0.02506423127999789</v>
       </c>
       <c r="C87">
-        <v>0.06711429198078331</v>
+        <v>0.005183374584838206</v>
       </c>
       <c r="D87">
-        <v>0.257917907806834</v>
+        <v>0.0198007132426965</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-0.333636041901958</v>
+        <v>-0.02562166108172565</v>
       </c>
       <c r="C88">
-        <v>0.08835473420683776</v>
+        <v>0.006801993154799894</v>
       </c>
       <c r="D88">
-        <v>0.2412689260500291</v>
+        <v>0.01853981338963914</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-0.3378552307766189</v>
+        <v>-0.02592850974297456</v>
       </c>
       <c r="C89">
-        <v>0.1102838532119417</v>
+        <v>0.008484252928592969</v>
       </c>
       <c r="D89">
-        <v>0.2220549017619712</v>
+        <v>0.01705777668233137</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,24 +1640,24 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-0.3392856449337213</v>
+        <v>-0.02603113404690111</v>
       </c>
       <c r="C90">
-        <v>0.1330756087513316</v>
+        <v>0.01026539472411293</v>
       </c>
       <c r="D90">
-        <v>0.2010908069328615</v>
+        <v>0.01542649235732993</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="B91">
-        <v>-0.3395523576776114</v>
+        <v>-0.02605694491062051</v>
       </c>
       <c r="C91">
-        <v>0.1560916869217152</v>
+        <v>0.01202610386006855</v>
       </c>
       <c r="D91">
-        <v>0.1791421461853331</v>
+        <v>0.01377569260410379</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/Fluxlinkage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/Fluxlinkage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-0.02605863221882625</v>
+        <v>-0.02611864558595158</v>
       </c>
       <c r="C2">
-        <v>0.01377943060570355</v>
+        <v>0.01377603685270858</v>
       </c>
       <c r="D2">
-        <v>0.01202190969373572</v>
+        <v>0.01200822462204941</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>-0.02603295433494097</v>
+        <v>-0.02609929164857243</v>
       </c>
       <c r="C3">
-        <v>0.0154460830560957</v>
+        <v>0.01546024262106534</v>
       </c>
       <c r="D3">
-        <v>0.01024904843418194</v>
+        <v>0.01023378161971989</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>-0.02592814421179669</v>
+        <v>-0.02599183946672092</v>
       </c>
       <c r="C4">
-        <v>0.01705625222686555</v>
+        <v>0.01706975423466523</v>
       </c>
       <c r="D4">
-        <v>0.008475307730270915</v>
+        <v>0.00847798589400676</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>-0.02561804914544486</v>
+        <v>-0.02567209690624712</v>
       </c>
       <c r="C5">
-        <v>0.01856393177722858</v>
+        <v>0.01854808306902525</v>
       </c>
       <c r="D5">
-        <v>0.006773599173171972</v>
+        <v>0.006792343057177129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>-0.02505291377941041</v>
+        <v>-0.0250977577347116</v>
       </c>
       <c r="C6">
-        <v>0.01980396457975165</v>
+        <v>0.0198269075039407</v>
       </c>
       <c r="D6">
-        <v>0.005171844745031701</v>
+        <v>0.005167264322425669</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>-0.02431464299414226</v>
+        <v>-0.02437250428490816</v>
       </c>
       <c r="C7">
-        <v>0.02086209230911188</v>
+        <v>0.02089184762633952</v>
       </c>
       <c r="D7">
-        <v>0.003478120200406677</v>
+        <v>0.003494952837594302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>-0.02353045180175459</v>
+        <v>-0.02358951328245324</v>
       </c>
       <c r="C8">
-        <v>0.02180762453937531</v>
+        <v>0.021826729997269</v>
       </c>
       <c r="D8">
-        <v>0.001751320737947629</v>
+        <v>0.001783979096890383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.02270038019678548</v>
+        <v>-0.02273749376899684</v>
       </c>
       <c r="C9">
-        <v>0.02269804195445591</v>
+        <v>0.02272081392251765</v>
       </c>
       <c r="D9">
-        <v>7.569216554587002e-06</v>
+        <v>9.634175792389878e-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>-0.02181537306408039</v>
+        <v>-0.02184489277465652</v>
       </c>
       <c r="C10">
-        <v>0.02353672574851009</v>
+        <v>0.02357371870687402</v>
       </c>
       <c r="D10">
-        <v>-0.001739588791454499</v>
+        <v>-0.001766839531161429</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>-0.020873680329162</v>
+        <v>-0.02090923615838181</v>
       </c>
       <c r="C11">
-        <v>0.0243146276104443</v>
+        <v>0.02435814378022029</v>
       </c>
       <c r="D11">
-        <v>-0.003453699680484418</v>
+        <v>-0.003485957175521476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>-0.01980184102127053</v>
+        <v>-0.01984497290617485</v>
       </c>
       <c r="C12">
-        <v>0.02505764242646714</v>
+        <v>0.02508609739095993</v>
       </c>
       <c r="D12">
-        <v>-0.005173544603390562</v>
+        <v>-0.005166279550759859</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>-0.01854187925177104</v>
+        <v>-0.01856527816808419</v>
       </c>
       <c r="C13">
-        <v>0.0256126956655484</v>
+        <v>0.02566197659563795</v>
       </c>
       <c r="D13">
-        <v>-0.006794649549796535</v>
+        <v>-0.006797241715648254</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>-0.01706645843740667</v>
+        <v>-0.01709220569621481</v>
       </c>
       <c r="C14">
-        <v>0.02591990900447109</v>
+        <v>0.02598529351902616</v>
       </c>
       <c r="D14">
-        <v>-0.008473297010389938</v>
+        <v>-0.008482452907590953</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>-0.01543780188323767</v>
+        <v>-0.01548453910353866</v>
       </c>
       <c r="C15">
-        <v>0.02602554379628106</v>
+        <v>0.02609506660432467</v>
       </c>
       <c r="D15">
-        <v>-0.01024507951578901</v>
+        <v>-0.01023367063834284</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>-0.01378019046017143</v>
+        <v>-0.0138022803992015</v>
       </c>
       <c r="C16">
-        <v>0.02605354945481923</v>
+        <v>0.02611540874360274</v>
       </c>
       <c r="D16">
-        <v>-0.01200511030253196</v>
+        <v>-0.01200087284355868</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>-0.01203173338929854</v>
+        <v>-0.01202892872559279</v>
       </c>
       <c r="C17">
-        <v>0.02605403457745157</v>
+        <v>0.02611509093733543</v>
       </c>
       <c r="D17">
-        <v>-0.01375953277667773</v>
+        <v>-0.0137728281773698</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>-0.01026838383737816</v>
+        <v>-0.01025972492257716</v>
       </c>
       <c r="C18">
-        <v>0.02602942029973142</v>
+        <v>0.02609588271042899</v>
       </c>
       <c r="D18">
-        <v>-0.01542649575151844</v>
+        <v>-0.01545621291360405</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>-0.008491951378706619</v>
+        <v>-0.008507891693597504</v>
       </c>
       <c r="C19">
-        <v>0.02592725757354386</v>
+        <v>0.02598965291803125</v>
       </c>
       <c r="D19">
-        <v>-0.01704038180070069</v>
+        <v>-0.01706553640350989</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>-0.006780533667877589</v>
+        <v>-0.006817607683546651</v>
       </c>
       <c r="C20">
-        <v>0.02561876759976216</v>
+        <v>0.025671379734207</v>
       </c>
       <c r="D20">
-        <v>-0.01854737783153768</v>
+        <v>-0.01854697356939728</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>-0.005166086363136871</v>
+        <v>-0.005185851348697388</v>
       </c>
       <c r="C21">
-        <v>0.02505919370915419</v>
+        <v>0.02509651184594092</v>
       </c>
       <c r="D21">
-        <v>-0.01978893882383124</v>
+        <v>-0.01982695442931688</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>-0.003462401399875708</v>
+        <v>-0.003509158469163923</v>
       </c>
       <c r="C22">
-        <v>0.02432218231371503</v>
+        <v>0.02437033384928565</v>
       </c>
       <c r="D22">
-        <v>-0.02085193076701229</v>
+        <v>-0.02089198309892761</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>-0.001736322332271254</v>
+        <v>-0.001794758739862166</v>
       </c>
       <c r="C23">
-        <v>0.02353691925457832</v>
+        <v>0.02358783772765769</v>
       </c>
       <c r="D23">
-        <v>-0.02180171937881128</v>
+        <v>-0.02182806759578806</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>7.479973520499363e-06</v>
+        <v>-1.99662271937219e-05</v>
       </c>
       <c r="C24">
-        <v>0.022701900401925</v>
+        <v>0.02273548567777631</v>
       </c>
       <c r="D24">
-        <v>-0.02269171378246469</v>
+        <v>-0.02272291115297462</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>0.001762017561401667</v>
+        <v>0.001754330297521139</v>
       </c>
       <c r="C25">
-        <v>0.02181190249108525</v>
+        <v>0.0218424550037836</v>
       </c>
       <c r="D25">
-        <v>-0.02352864115861354</v>
+        <v>-0.02357476669800397</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>0.0034825011919918</v>
+        <v>0.003475448882153838</v>
       </c>
       <c r="C26">
-        <v>0.02087031527007697</v>
+        <v>0.02090549758555208</v>
       </c>
       <c r="D26">
-        <v>-0.0243070896373668</v>
+        <v>-0.02435815331962554</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>0.005200555625469817</v>
+        <v>0.005159950202074542</v>
       </c>
       <c r="C27">
-        <v>0.01980389141383682</v>
+        <v>0.01984054289330848</v>
       </c>
       <c r="D27">
-        <v>-0.02505247643282983</v>
+        <v>-0.02508638579976326</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>0.006813561119513429</v>
+        <v>0.006797127131618429</v>
       </c>
       <c r="C28">
-        <v>0.01854800722209107</v>
+        <v>0.01856044112250035</v>
       </c>
       <c r="D28">
-        <v>-0.02561458475010004</v>
+        <v>-0.02566307659794508</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>0.008493035228705854</v>
+        <v>0.008489828168984751</v>
       </c>
       <c r="C29">
-        <v>0.01706856792363221</v>
+        <v>0.01708419357201518</v>
       </c>
       <c r="D29">
-        <v>-0.02592378557865509</v>
+        <v>-0.02598580073067488</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>0.01027489006424248</v>
+        <v>0.01024408776849906</v>
       </c>
       <c r="C30">
-        <v>0.0154362470609208</v>
+        <v>0.01547398668756708</v>
       </c>
       <c r="D30">
-        <v>-0.02602684436632979</v>
+        <v>-0.02609425349115762</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>0.01204432219275073</v>
+        <v>0.01201147309129894</v>
       </c>
       <c r="C31">
-        <v>0.01377629955738335</v>
+        <v>0.01379014150871405</v>
       </c>
       <c r="D31">
-        <v>-0.0260523550428813</v>
+        <v>-0.0261138088910278</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>0.01379297818710473</v>
+        <v>0.01378202851188638</v>
       </c>
       <c r="C32">
-        <v>0.01202943544197829</v>
+        <v>0.01201782704609416</v>
       </c>
       <c r="D32">
-        <v>-0.02605184307487777</v>
+        <v>-0.02611314082892403</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>0.01544239690374599</v>
+        <v>0.01546273052727748</v>
       </c>
       <c r="C33">
-        <v>0.01026979889491509</v>
+        <v>0.01024923531644192</v>
       </c>
       <c r="D33">
-        <v>-0.02602844118888004</v>
+        <v>-0.02609357133187616</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>0.01704823118202438</v>
+        <v>0.0170685532542763</v>
       </c>
       <c r="C34">
-        <v>0.008494929510300567</v>
+        <v>0.008497227641260969</v>
       </c>
       <c r="D34">
-        <v>-0.0259282553964518</v>
+        <v>-0.02598682292675773</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>0.01856055811493273</v>
+        <v>0.01854734439058738</v>
       </c>
       <c r="C35">
-        <v>0.006786309932189394</v>
+        <v>0.006807760383973878</v>
       </c>
       <c r="D35">
-        <v>-0.02561992595762756</v>
+        <v>-0.02566911381228652</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>0.0198042738242302</v>
+        <v>0.01982708319364806</v>
       </c>
       <c r="C36">
-        <v>0.005180537444670589</v>
+        <v>0.005177503414312017</v>
       </c>
       <c r="D36">
-        <v>-0.02505960367950309</v>
+        <v>-0.02509536991017998</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>0.02086145333249006</v>
+        <v>0.02089268120105196</v>
       </c>
       <c r="C37">
-        <v>0.003483613124427594</v>
+        <v>0.003502789348541344</v>
       </c>
       <c r="D37">
-        <v>-0.02432343798160419</v>
+        <v>-0.02436989547880727</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>0.02180631025420775</v>
+        <v>0.02182846612549944</v>
       </c>
       <c r="C38">
-        <v>0.001756037496869382</v>
+        <v>0.001787672560069102</v>
       </c>
       <c r="D38">
-        <v>-0.0235373747308488</v>
+        <v>-0.02358677590245289</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>0.02269671203537045</v>
+        <v>0.02272254468579846</v>
       </c>
       <c r="C39">
-        <v>1.27088564024708e-05</v>
+        <v>1.217733389360541e-05</v>
       </c>
       <c r="D39">
-        <v>-0.02270394115205608</v>
+        <v>-0.02273414208460739</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>0.02353752519155922</v>
+        <v>0.02357565396141356</v>
       </c>
       <c r="C40">
-        <v>-0.001738400405471938</v>
+        <v>-0.001764664817277393</v>
       </c>
       <c r="D40">
-        <v>-0.021815134491177</v>
+        <v>-0.02184000738056412</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>0.02431713414851306</v>
+        <v>0.02435915260077584</v>
       </c>
       <c r="C41">
-        <v>-0.003455906529934917</v>
+        <v>-0.003481787980964983</v>
       </c>
       <c r="D41">
-        <v>-0.02087373149893279</v>
+        <v>-0.02090430304974153</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>0.02506325248695952</v>
+        <v>0.02508712462646955</v>
       </c>
       <c r="C42">
-        <v>-0.005180953773320692</v>
+        <v>-0.005162571953189008</v>
       </c>
       <c r="D42">
-        <v>-0.01980238637490461</v>
+        <v>-0.019840016157202</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>0.02562102304760126</v>
+        <v>0.0256637797747033</v>
       </c>
       <c r="C43">
-        <v>-0.006799672223575743</v>
+        <v>-0.006796102800436521</v>
       </c>
       <c r="D43">
-        <v>-0.01854176967566027</v>
+        <v>-0.01855946815766369</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>0.02592824801302411</v>
+        <v>0.02598807801453282</v>
       </c>
       <c r="C44">
-        <v>-0.00848172742669339</v>
+        <v>-0.008482793054172042</v>
       </c>
       <c r="D44">
-        <v>-0.01706005327848648</v>
+        <v>-0.01708298986025995</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>0.02603106351880405</v>
+        <v>0.02609826165335575</v>
       </c>
       <c r="C45">
-        <v>-0.01026283694086675</v>
+        <v>-0.01023434080968027</v>
       </c>
       <c r="D45">
-        <v>-0.01542882802747969</v>
+        <v>-0.01547159869082459</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>0.02605693322216815</v>
+        <v>0.02611873457407717</v>
       </c>
       <c r="C46">
-        <v>-0.01202356437530151</v>
+        <v>-0.01200338866719844</v>
       </c>
       <c r="D46">
-        <v>-0.01377814360209025</v>
+        <v>-0.01378424990624878</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>0.02605862710027867</v>
+        <v>0.02611864129985959</v>
       </c>
       <c r="C47">
-        <v>-0.01378188677613554</v>
+        <v>-0.01377854251197632</v>
       </c>
       <c r="D47">
-        <v>-0.0120193575819289</v>
+        <v>-0.01200565396446856</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>0.02603287978186612</v>
+        <v>0.02609922218420755</v>
       </c>
       <c r="C48">
-        <v>-0.01544842867962117</v>
+        <v>-0.01546259853608217</v>
       </c>
       <c r="D48">
-        <v>-0.01024649546726147</v>
+        <v>-0.01023123957288847</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>0.02592787700680213</v>
+        <v>0.02599156971174284</v>
       </c>
       <c r="C49">
-        <v>-0.0170585913926563</v>
+        <v>-0.0170720139070873</v>
       </c>
       <c r="D49">
-        <v>-0.008472751034373619</v>
+        <v>-0.008475488037382581</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>0.0256173961322247</v>
+        <v>0.02567142874419802</v>
       </c>
       <c r="C50">
-        <v>-0.01856588024966531</v>
+        <v>-0.01855007271148522</v>
       </c>
       <c r="D50">
-        <v>-0.006771265040786982</v>
+        <v>-0.006789982473836417</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>0.02505194469626127</v>
+        <v>0.02509679814582586</v>
       </c>
       <c r="C51">
-        <v>-0.01980560900902551</v>
+        <v>-0.01982858808999305</v>
       </c>
       <c r="D51">
-        <v>-0.005169481678490693</v>
+        <v>-0.005164903123088096</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>0.02431350931009602</v>
+        <v>0.02437140652258087</v>
       </c>
       <c r="C52">
-        <v>-0.0208635184250742</v>
+        <v>-0.02089325912184884</v>
       </c>
       <c r="D52">
-        <v>-0.003475615069011792</v>
+        <v>-0.003492510815234931</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>0.02352930766661838</v>
+        <v>0.02358833585105935</v>
       </c>
       <c r="C53">
-        <v>-0.02180893120732062</v>
+        <v>-0.02182803792885368</v>
       </c>
       <c r="D53">
-        <v>-0.00174884310869021</v>
+        <v>-0.001781469507081649</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>0.02269912895060871</v>
+        <v>0.02273622181576289</v>
       </c>
       <c r="C54">
-        <v>-0.02269931350602986</v>
+        <v>-0.02272209023430734</v>
       </c>
       <c r="D54">
-        <v>-5.016683869142353e-06</v>
+        <v>-7.039477394927326e-06</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>0.02181406805693573</v>
+        <v>0.02184359047017134</v>
       </c>
       <c r="C55">
-        <v>-0.02353788831855394</v>
+        <v>-0.02357489397202421</v>
       </c>
       <c r="D55">
-        <v>0.001742084803048096</v>
+        <v>0.001769353775976043</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>0.0208722483267487</v>
+        <v>0.02090781617998932</v>
       </c>
       <c r="C56">
-        <v>-0.02431571461804888</v>
+        <v>-0.02435924814620667</v>
       </c>
       <c r="D56">
-        <v>0.003456162854432763</v>
+        <v>0.00348841635390578</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>0.01980016738947426</v>
+        <v>0.01984330079308797</v>
       </c>
       <c r="C57">
-        <v>-0.02505861266155375</v>
+        <v>-0.02508705624674518</v>
       </c>
       <c r="D57">
-        <v>0.005175960284815764</v>
+        <v>0.00516864672887694</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>0.0185399329674773</v>
+        <v>0.01856328678914765</v>
       </c>
       <c r="C58">
-        <v>-0.0256133292777375</v>
+        <v>-0.02566264792727931</v>
       </c>
       <c r="D58">
-        <v>0.00679696774086465</v>
+        <v>0.00679960698336273</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>0.01706419078317377</v>
+        <v>0.01708995508444821</v>
       </c>
       <c r="C59">
-        <v>-0.02592017494791679</v>
+        <v>-0.02598556910175544</v>
       </c>
       <c r="D59">
-        <v>0.00847580643809499</v>
+        <v>0.008484948655752762</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>0.0154354558375073</v>
+        <v>0.01548218431658446</v>
       </c>
       <c r="C60">
-        <v>-0.02602562005034189</v>
+        <v>-0.02609513753143002</v>
       </c>
       <c r="D60">
-        <v>0.01024763028485236</v>
+        <v>0.0102362071200323</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>0.01377774283856065</v>
+        <v>0.01379976941466724</v>
       </c>
       <c r="C61">
-        <v>-0.02605355897286153</v>
+        <v>-0.02611541166684522</v>
       </c>
       <c r="D61">
-        <v>0.01200764626213924</v>
+        <v>0.01200344118660825</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>0.012029193714173</v>
+        <v>0.01202635716363025</v>
       </c>
       <c r="C62">
-        <v>-0.02605402678165786</v>
+        <v>-0.02611508774833403</v>
       </c>
       <c r="D62">
-        <v>0.0137619913526797</v>
+        <v>0.0137753390307716</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>0.01026584339927983</v>
+        <v>0.01025719537370032</v>
       </c>
       <c r="C63">
-        <v>-0.02602935077979458</v>
+        <v>-0.02609581757779647</v>
       </c>
       <c r="D63">
-        <v>0.01542883704718895</v>
+        <v>0.01545856518322782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>0.008489380775978897</v>
+        <v>0.008505393154071499</v>
       </c>
       <c r="C64">
-        <v>-0.02592699372452647</v>
+        <v>-0.0259893853020704</v>
       </c>
       <c r="D64">
-        <v>0.01704272700294733</v>
+        <v>0.01706779896594277</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>0.006778182397224796</v>
+        <v>0.006815236426824268</v>
       </c>
       <c r="C65">
-        <v>-0.02561811954737582</v>
+        <v>-0.02567071216984228</v>
       </c>
       <c r="D65">
-        <v>0.01854932348566476</v>
+        <v>0.01854896738377506</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>0.005163708072886892</v>
+        <v>0.005183485640111715</v>
       </c>
       <c r="C66">
-        <v>-0.02505822923291929</v>
+        <v>-0.02509555170585991</v>
       </c>
       <c r="D66">
-        <v>0.01979058244291256</v>
+        <v>0.01982863158163084</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>0.003459881679677436</v>
+        <v>0.003506695400085325</v>
       </c>
       <c r="C67">
-        <v>-0.02432104460241567</v>
+        <v>-0.02436922748055099</v>
       </c>
       <c r="D67">
-        <v>0.02085337117962425</v>
+        <v>0.02089340777476808</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>0.001733836214031578</v>
+        <v>0.001792254627318367</v>
       </c>
       <c r="C68">
-        <v>-0.02353576012561896</v>
+        <v>-0.02358666785460881</v>
       </c>
       <c r="D68">
-        <v>0.02180303638307813</v>
+        <v>0.02182936837026667</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>-1.00391770259012e-05</v>
+        <v>1.737856544734798e-05</v>
       </c>
       <c r="C69">
-        <v>-0.02270064197429248</v>
+        <v>-0.02273421590173884</v>
       </c>
       <c r="D69">
-        <v>0.02269298282640084</v>
+        <v>0.02272418487359285</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-0.001764522997135733</v>
+        <v>-0.001756839514691838</v>
       </c>
       <c r="C70">
-        <v>-0.02181059288137214</v>
+        <v>-0.02184115367511002</v>
       </c>
       <c r="D70">
-        <v>0.02352980131898075</v>
+        <v>0.02357593648312708</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-0.003484970458220099</v>
+        <v>-0.003477913614471181</v>
       </c>
       <c r="C71">
-        <v>-0.02086888866902114</v>
+        <v>-0.02090407497052736</v>
       </c>
       <c r="D71">
-        <v>0.02430817882596423</v>
+        <v>0.02435925729569605</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-0.005202972052119545</v>
+        <v>-0.005162331197993543</v>
       </c>
       <c r="C72">
-        <v>-0.01980222029630016</v>
+        <v>-0.01983886332584242</v>
       </c>
       <c r="D72">
-        <v>0.02505345967102238</v>
+        <v>0.02508735058561994</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-0.006815864500580251</v>
+        <v>-0.006799504198128906</v>
       </c>
       <c r="C73">
-        <v>-0.01854606389087368</v>
+        <v>-0.01855844596759956</v>
       </c>
       <c r="D73">
-        <v>0.02561522772741623</v>
+        <v>0.02566374995928695</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-0.008495555300550949</v>
+        <v>-0.008492335271348246</v>
       </c>
       <c r="C74">
-        <v>-0.01706629555446508</v>
+        <v>-0.01708193489260752</v>
       </c>
       <c r="D74">
-        <v>0.02592404897249438</v>
+        <v>0.0259860743358042</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-0.01027745388927796</v>
+        <v>-0.01024662935753452</v>
       </c>
       <c r="C75">
-        <v>-0.01543389728819669</v>
+        <v>-0.01547162431359642</v>
       </c>
       <c r="D75">
-        <v>0.02602691796280115</v>
+        <v>0.02609432480150577</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-0.01204685611640772</v>
+        <v>-0.01201403626742076</v>
       </c>
       <c r="C76">
-        <v>-0.01377385622077956</v>
+        <v>-0.0137876356607491</v>
       </c>
       <c r="D76">
-        <v>0.0260523633776189</v>
+        <v>0.02611381183878846</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-0.013795424176223</v>
+        <v>-0.01378453784754699</v>
       </c>
       <c r="C77">
-        <v>-0.01202689778413149</v>
+        <v>-0.01201525531763072</v>
       </c>
       <c r="D77">
-        <v>0.02605183534168213</v>
+        <v>0.02611313640398703</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-0.01544471562640553</v>
+        <v>-0.01546508957103362</v>
       </c>
       <c r="C78">
-        <v>-0.01026726004208438</v>
+        <v>-0.01024669315876135</v>
       </c>
       <c r="D78">
-        <v>0.02602837444986294</v>
+        <v>0.02609350082375262</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-0.01705056269326931</v>
+        <v>-0.01707081831625033</v>
       </c>
       <c r="C79">
-        <v>-0.008492373220058261</v>
+        <v>-0.008494721167446557</v>
       </c>
       <c r="D79">
-        <v>0.02592800120219434</v>
+        <v>0.02598655332498716</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-0.01856251710747468</v>
+        <v>-0.0185493380672576</v>
       </c>
       <c r="C80">
-        <v>-0.006783962576527562</v>
+        <v>-0.006805388191151695</v>
       </c>
       <c r="D80">
-        <v>0.02561928141226602</v>
+        <v>0.02566844832142744</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-0.0198059140338749</v>
+        <v>-0.01982875769679937</v>
       </c>
       <c r="C81">
-        <v>-0.005178172950455562</v>
+        <v>-0.005175146669901606</v>
       </c>
       <c r="D81">
-        <v>0.0250586399207257</v>
+        <v>0.02509441612069809</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-0.02086288667369265</v>
+        <v>-0.02089409969475567</v>
       </c>
       <c r="C82">
-        <v>-0.003481091092957606</v>
+        <v>-0.003500336343192068</v>
       </c>
       <c r="D82">
-        <v>0.02432229771188015</v>
+        <v>0.02436879348388812</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-0.02180761762948286</v>
+        <v>-0.02182976830013869</v>
       </c>
       <c r="C83">
-        <v>-0.001753556680805822</v>
+        <v>-0.001785162578293279</v>
       </c>
       <c r="D83">
-        <v>0.02353622077457519</v>
+        <v>0.02358560203141309</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-0.02269798587309064</v>
+        <v>-0.02272382342118262</v>
       </c>
       <c r="C84">
-        <v>-1.015243783544307e-05</v>
+        <v>-9.580060065684983e-06</v>
       </c>
       <c r="D84">
-        <v>0.02270268457296251</v>
+        <v>0.02273286467628025</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-0.02353868990036679</v>
+        <v>-0.02357682384388617</v>
       </c>
       <c r="C85">
-        <v>0.00174089721069534</v>
+        <v>0.00176717094486829</v>
       </c>
       <c r="D85">
-        <v>0.02181382816716542</v>
+        <v>0.02183870682848312</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-0.02431822462507276</v>
+        <v>-0.02436024982860821</v>
       </c>
       <c r="C86">
-        <v>0.003458378017189883</v>
+        <v>0.003484236889885954</v>
       </c>
       <c r="D86">
-        <v>0.02087230200789337</v>
+        <v>0.0209028910325027</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-0.02506423127999789</v>
+        <v>-0.02508808625204409</v>
       </c>
       <c r="C87">
-        <v>0.005183374584838206</v>
+        <v>0.005164942808526926</v>
       </c>
       <c r="D87">
-        <v>0.0198007132426965</v>
+        <v>0.01983834264334585</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-0.02562166108172565</v>
+        <v>-0.02566445069080511</v>
       </c>
       <c r="C88">
-        <v>0.006801993154799894</v>
+        <v>0.006798471510704508</v>
       </c>
       <c r="D88">
-        <v>0.01853981338963914</v>
+        <v>0.01855747137293342</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-0.02592850974297456</v>
+        <v>-0.02598835503153862</v>
       </c>
       <c r="C89">
-        <v>0.008484252928592969</v>
+        <v>0.008485292863539747</v>
       </c>
       <c r="D89">
-        <v>0.01705777668233137</v>
+        <v>0.01708072906803058</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,24 +1640,24 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-0.02603113404690111</v>
+        <v>-0.02609833295955915</v>
       </c>
       <c r="C90">
-        <v>0.01026539472411293</v>
+        <v>0.01023687234010188</v>
       </c>
       <c r="D90">
-        <v>0.01542649235732993</v>
+        <v>0.0154692429357782</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="B91">
-        <v>-0.02605694491062051</v>
+        <v>-0.02611873966136075</v>
       </c>
       <c r="C91">
-        <v>0.01202610386006855</v>
+        <v>0.01200595878369269</v>
       </c>
       <c r="D91">
-        <v>0.01377569260410379</v>
+        <v>0.01378173363961416</v>
       </c>
     </row>
   </sheetData>
